--- a/Jupyter/simulationID/cim_0315_1240/agents_cim_0317_1615/bldg_itr_14.xlsx
+++ b/Jupyter/simulationID/cim_0315_1240/agents_cim_0317_1615/bldg_itr_14.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10203"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shai/Google Drive/BatYam NY DRIVE/Simulations/March 14 GitHUB/BatYamNY/Jupyter/simulationID/cim_0315_1240/agents_cim_0317_1615/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375551F4-877C-784F-99B1-61C1237F0C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="36580" yWindow="-2680" windowWidth="23200" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -91,17 +97,17 @@
     <t>220_4</t>
   </si>
   <si>
-    <t>﻿215_2</t>
-  </si>
-  <si>
     <t>תב״ע פינוי בינוי</t>
+  </si>
+  <si>
+    <t>215_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +170,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -210,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,9 +256,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,6 +308,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,14 +501,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -522,16 +574,16 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2">
         <v>0.375</v>
       </c>
       <c r="L2">
-        <v>0.6590909090909091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.65909090909090906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -560,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -569,7 +621,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -598,16 +650,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>0.1</v>
       </c>
       <c r="L4">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -636,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -674,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5652173913043478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.56521739130434778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -712,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>0.5</v>
@@ -721,7 +773,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -750,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>0.5</v>
@@ -759,7 +811,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -788,16 +840,16 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0.3888888888888889</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -826,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -864,16 +916,16 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L11">
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -902,16 +954,16 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="L12">
         <v>0.59375</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -940,16 +992,16 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L13">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -978,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="L14">
         <v>0.375</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1016,16 +1068,16 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1033,7 +1085,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -1054,13 +1106,13 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.4583333333333333</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="L16">
-        <v>0.8725490196078431</v>
+        <v>0.87254901960784315</v>
       </c>
     </row>
   </sheetData>
